--- a/data/Senegal/inputs/regional_yield.xlsx
+++ b/data/Senegal/inputs/regional_yield.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\OneDrive\Documents\academique\M2_ens_ulm\S2_stage\repository_updated\data\Senegal\inputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440C479A-8838-4130-8946-9A075B0A1BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Herbe" sheetId="1" r:id="rId2"/>
-    <sheet name="Mil fruit" sheetId="2" r:id="rId4"/>
-    <sheet name="Arachide fruit" sheetId="3" r:id="rId5"/>
+    <sheet name="Herbe" sheetId="1" r:id="rId1"/>
+    <sheet name="Mil fruit" sheetId="2" r:id="rId2"/>
+    <sheet name="Arachide fruit" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Var1</t>
   </si>
@@ -35,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -58,3134 +65,3472 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="9.85546875" customWidth="true"/>
-    <col min="4" max="4" width="9.42578125" customWidth="true"/>
-    <col min="5" max="5" width="12.140625" customWidth="true"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>21551</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>0.69905000000000006</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>1.2176600000000002</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>1.3214500000000002</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>1.6515000000000002</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>21916</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>1.0094000000000001</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>1.11287</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>1.0964700000000001</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>1.2429600000000001</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>22282</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>1.1245700000000001</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>1.15628</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>1.20062</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>1.4376</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>22647</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>0.64649000000000001</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>1.04209</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>0.96099999999999997</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>1.2302899999999999</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>23012</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>0.59162000000000003</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>0.89239000000000002</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>0.93745999999999996</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>1.31037</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>23377</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>0.72501000000000004</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>1.2530600000000001</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>1.09605</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>1.2450000000000001</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>23743</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>0.77521000000000007</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>1.1295900000000001</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>1.2356199999999999</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>1.53281</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>24108</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>0.98292000000000002</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>1.13913</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>1.13781</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>1.5827799999999999</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>24473</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>0.59514</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>0.97432000000000007</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>1.01712</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>0.7470699999999999</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>24838</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>0.91605999999999999</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>0.90688999999999997</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>1.1046100000000001</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>1.22557</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>25204</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>0.8833700000000001</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>1.01566</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>0.88370000000000004</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>1.06443</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>25569</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>0.38600000000000001</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>0.87763999999999998</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>1.08924</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>1.0931500000000001</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>25934</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>0.82798000000000005</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>1.0171299999999999</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>1.04487</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>1.0343899999999999</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>26299</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>0.21431999999999998</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>1.16628</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>1.07894</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>1.4887200000000003</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>26665</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>0.86468999999999996</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>0.87257000000000007</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>0.99712999999999996</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>1.37609</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>27030</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>0.75174000000000007</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>0.85239000000000009</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>0.85033000000000003</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>1.2612399999999999</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>27395</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>0.79718999999999995</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>0.77585999999999999</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>0.90281999999999996</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>1.1620000000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>27760</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>0.88231999999999999</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>0.99195999999999995</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>1.19336</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>1.5449700000000002</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>28126</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>0.57855000000000001</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>1.0437699999999999</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>1.10083</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>1.0645099999999998</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>28491</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>0.72489999999999999</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>1.0624</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>1.2037800000000001</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>1.5601099999999999</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>28856</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>0.84712999999999994</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>1.3479699999999999</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>1.4726300000000001</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>1.4690100000000001</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>29221</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>0.89285999999999999</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>0.6641800000000001</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>0.73036000000000001</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>1.0518000000000001</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>29587</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>0.96453999999999995</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>1.00637</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>1.05535</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>1.3812799999999998</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>29952</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>0.77557000000000009</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>0.88555000000000006</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>0.90749999999999997</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>1.2085900000000001</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>30317</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>0.44883000000000006</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>0.89258999999999999</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>1.1083400000000001</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>1.4775499999999999</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>30682</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>0.80498000000000003</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>1.22038</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>1.2260500000000001</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>1.2620400000000001</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>31048</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>1.0619400000000001</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>1.0400400000000001</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>0.97653000000000012</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>1.2821799999999999</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>31413</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>1.0104900000000001</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>0.91141000000000005</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>1.2584900000000001</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>1.4860400000000002</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>31778</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>0.9043000000000001</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>1.12242</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>1.35825</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>1.52549</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>32143</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>0.89007000000000003</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>0.80103999999999997</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>1.1275600000000001</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>1.09321</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32509</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>0.92666000000000004</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>0.95094999999999996</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>1.2409600000000001</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>1.42096</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32874</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>0.80088999999999999</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>1.0045999999999999</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>1.423</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>1.4468100000000002</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33239</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>0.57208000000000003</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>0.99346999999999996</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>0.82438</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>1.0235099999999999</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33604</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>0.44356000000000001</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>0.85138999999999998</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>1.29396</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>1.63676</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>33970</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>0.88978999999999997</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>0.86648999999999998</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>0.83457999999999999</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>1.20529</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>34335</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>0.63822999999999996</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>0.81525000000000003</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>1.0021500000000001</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>1.4171600000000002</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>34700</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>0.98826999999999998</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>1.22184</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>1.2367600000000001</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>1.4385700000000001</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>35065</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>0.92739000000000005</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>1.04247</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>1.0028300000000001</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>1.2743899999999999</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>35431</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>0.67239000000000004</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>1.36609</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>1.33738</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>1.40143</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>35796</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>0.54286999999999996</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>0.71450999999999998</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>0.87926000000000004</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>1.2006000000000001</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36161</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>0.98424000000000011</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>1.0514600000000001</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>1.1278900000000001</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>1.4315199999999999</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>36526</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>0.74077000000000004</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>1.004</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>1.3096300000000001</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>1.29694</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>36892</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>0.91944000000000004</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>1.09002</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>1.1964600000000001</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>1.2982</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>37257</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>0.69120000000000004</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>0.99182000000000003</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>1.0881399999999999</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>1.2524299999999999</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>37622</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>0.95589000000000002</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>1.0320800000000001</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>1.0165900000000001</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>1.53962</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>37987</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>0.66135999999999995</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>0.91310000000000002</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47">
         <v>1.52447</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>1.8263499999999999</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>38353</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>1.1167199999999999</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>1.4776</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>1.34107</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>1.4259600000000001</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>38718</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>1.0961400000000001</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>0.90293999999999996</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>1.2895699999999999</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>1.5711000000000002</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>39083</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>0.64502999999999999</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>1.02901</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>0.80351000000000006</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50">
         <v>1.2400100000000001</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>39448</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>0.74927999999999995</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>1.19716</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51">
         <v>1.17235</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51">
         <v>1.5305800000000001</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>39814</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>1.0022800000000001</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>0.97260000000000002</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>1.24464</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>1.07751</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40179</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>0.95019000000000009</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>1.0196099999999999</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>1.31264</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>1.5255799999999999</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40544</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>0.81709999999999994</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>1.2500899999999999</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>1.3407100000000001</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>1.4639500000000001</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40909</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>0.91558000000000006</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>1.0359499999999999</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>1.1879000000000002</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>1.6256899999999999</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>41275</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>1.1836100000000001</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>1.35975</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>1.3079800000000001</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>1.27704</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>41640</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>0.47399999999999998</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>1.0752599999999999</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>1.1289</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57">
         <v>1.09666</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42005</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>1.0318400000000001</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>0.93507000000000007</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>1.15052</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>1.0799800000000002</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>42370</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>0.7386100000000001</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>0.98751000000000011</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>0.89733000000000007</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>1.18415</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>42736</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>0.96028000000000013</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>1.17608</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>1.1858299999999999</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>1.1800200000000001</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="9.85546875" customWidth="true"/>
-    <col min="4" max="4" width="9.42578125" customWidth="true"/>
-    <col min="5" max="5" width="12.140625" customWidth="true"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>21551</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>0.15132999999999999</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>0.27422999999999997</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>0.18848000000000001</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>0.21686</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>21916</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>0.18081</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>0.29561999999999999</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>0.25054999999999999</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>0.32991999999999999</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>22282</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>0.21754999999999999</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>0.18459999999999999</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>0.24043</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>22647</v>
       </c>
-      <c r="B5" s="0">
-        <v>0.0032499999999999999</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="B5">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="C5">
         <v>0.19667999999999999</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>0.21584</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>0.22183</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>23012</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>0.17369000000000001</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>0.22869</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>0.25431999999999999</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>0.32029000000000002</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>23377</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>0.17605000000000001</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>0.23074</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>0.19639999999999999</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>0.22400999999999999</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>23743</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>0.22772999999999999</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>0.24091000000000001</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>0.21567</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>0.27281</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>24108</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>0.21828</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>0.22561999999999999</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>0.22270000000000001</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>0.2384</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>24473</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>0.22183</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>0.24424999999999999</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>0.24571000000000001</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>0.24751999999999999</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>24838</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>0.14618</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>0.17679</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>0.19520999999999999</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>0.23885000000000001</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>25204</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>0.26308999999999999</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>0.29468</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>0.29731000000000002</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>25569</v>
       </c>
-      <c r="B13" s="0">
-        <v>0.058909999999999997</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="B13">
+        <v>5.8909999999999997E-2</v>
+      </c>
+      <c r="C13">
         <v>0.24992</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>0.16746</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>0.15975</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>25934</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>0.18636</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>0.28244000000000002</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>0.25717000000000001</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>0.31552999999999998</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>26299</v>
       </c>
-      <c r="B15" s="0">
-        <v>0.037280000000000001</v>
-      </c>
-      <c r="C15" s="0">
+      <c r="B15">
+        <v>3.7280000000000001E-2</v>
+      </c>
+      <c r="C15">
         <v>0.16822999999999999</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>0.16889000000000001</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>0.18659999999999999</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>26665</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>0.16186</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>0.15539</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>0.18914</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>0.27317000000000002</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>27030</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>0.15137999999999999</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>0.24601000000000001</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>0.19556999999999999</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>0.21926999999999999</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>27395</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>0.22539000000000001</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>0.24601000000000001</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>0.25862000000000002</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>0.25145000000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>27760</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>0.17182</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>0.23893</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>0.24823999999999999</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>0.29752000000000001</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>28126</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>0.12209</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>0.14577000000000001</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>0.17280000000000001</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>0.17737</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>28491</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>0.11668000000000001</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>0.21501000000000001</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>0.20236000000000001</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>0.23741000000000001</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>28856</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>0.13694000000000001</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>0.12653</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>0.20855000000000001</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>0.20588000000000001</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>29221</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>0.19700000000000001</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>0.12617999999999999</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>0.15117</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>0.25480000000000003</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>29587</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>0.16625999999999999</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>0.18232999999999999</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>0.22284000000000001</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>0.25813999999999998</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>29952</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>0.15557000000000001</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>0.17482</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>0.24984999999999999</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>0.22312000000000001</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>30317</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>0.17942</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>0.22192999999999999</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>0.1046</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>0.1981</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>30682</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>0.18909000000000001</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>0.25684000000000001</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>0.20565</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>0.15404000000000001</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>31048</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>0.17732000000000001</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>0.25685999999999998</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>0.25444</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>0.26128000000000001</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>31413</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>0.13131000000000001</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>0.17460999999999999</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>0.27001999999999998</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>0.26090000000000002</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>31778</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>0.19818</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>0.20956</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>0.20560999999999999</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>0.30436000000000002</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>32143</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>0.21970999999999999</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>0.21631</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>0.23078000000000001</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>0.16764000000000001</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32509</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>0.1578</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>0.18801000000000001</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>0.23452000000000001</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>0.31152999999999997</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32874</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>0.20338000000000001</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>0.18339</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>0.29848999999999998</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>0.17374999999999999</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33239</v>
       </c>
-      <c r="B34" s="0">
-        <v>0.01204</v>
-      </c>
-      <c r="C34" s="0">
-        <v>0.060359999999999997</v>
-      </c>
-      <c r="D34" s="0">
-        <v>0.069500000000000006</v>
-      </c>
-      <c r="E34" s="0">
+      <c r="B34">
+        <v>1.204E-2</v>
+      </c>
+      <c r="C34">
+        <v>6.0359999999999997E-2</v>
+      </c>
+      <c r="D34">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="E34">
         <v>0.22550000000000001</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33604</v>
       </c>
-      <c r="B35" s="0">
-        <v>0.034470000000000001</v>
-      </c>
-      <c r="C35" s="0">
+      <c r="B35">
+        <v>3.4470000000000001E-2</v>
+      </c>
+      <c r="C35">
         <v>0.18615999999999999</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>0.20377000000000001</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>0.29577999999999999</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>33970</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>0.23105999999999999</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>0.23934</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>0.24632000000000001</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>0.22652</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>34335</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>0.20387</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>0.17207</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>0.18631</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>0.27766000000000002</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>34700</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>0.16736999999999999</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>0.20208000000000001</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>0.19524</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>0.29582000000000003</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>35065</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>0.15901000000000001</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>0.14582000000000001</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>0.17286000000000001</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>0.21001</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>35431</v>
       </c>
-      <c r="B40" s="0">
-        <v>0.072340000000000002</v>
-      </c>
-      <c r="C40" s="0">
+      <c r="B40">
+        <v>7.2340000000000002E-2</v>
+      </c>
+      <c r="C40">
         <v>0.16844000000000001</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>0.21782000000000001</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>0.24479000000000001</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>35796</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>0.15151000000000001</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>0.15101000000000001</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>0.18647</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>0.21997</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36161</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>0.21362</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>0.23669000000000001</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>0.24998000000000001</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>0.27468999999999999</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>36526</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>0.17107</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>0.18009</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>0.25106000000000001</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>0.25840999999999997</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>36892</v>
       </c>
-      <c r="B44" s="0">
-        <v>0.086599999999999996</v>
-      </c>
-      <c r="C44" s="0">
+      <c r="B44">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="C44">
         <v>0.22792999999999999</v>
       </c>
-      <c r="D44" s="0">
-        <v>0.064219999999999999</v>
-      </c>
-      <c r="E44" s="0">
+      <c r="D44">
+        <v>6.4219999999999999E-2</v>
+      </c>
+      <c r="E44">
         <v>0.22961000000000001</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>37257</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>0.14419000000000001</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>0.12667</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>0.22313</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>0.27599000000000001</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>37622</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>0.14491999999999999</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>0.16636999999999999</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>0.25139</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>0.24918000000000001</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>37987</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>0.21464</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>0.19423000000000001</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47">
         <v>0.24018</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>0.26523999999999998</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>38353</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>0.19095000000000001</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>0.28981000000000001</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>0.29998000000000002</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>0.24535000000000001</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>38718</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>0.2198</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>0.18215999999999999</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>0.19783000000000001</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>0.25006</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>39083</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>0.11641</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>0.16846</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>0.20224</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50">
         <v>0.22869</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>39448</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>0.14899999999999999</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>0.23232</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51">
         <v>0.26790999999999998</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51">
         <v>0.29255999999999999</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>39814</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>0.22029000000000001</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>0.24384</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>0.25477</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>0.21554000000000001</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40179</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>0.28582999999999997</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>0.27239999999999998</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>0.30746000000000001</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>0.29935</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40544</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>0.13295999999999999</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>0.18590000000000001</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>0.23966000000000001</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>0.19756000000000001</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40909</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>0.22620000000000001</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>0.24034</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>0.27750999999999998</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>0.32883000000000001</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>41275</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>0.23327000000000001</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>0.25661</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>0.23788000000000001</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>0.22681999999999999</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>41640</v>
       </c>
-      <c r="B57" s="0">
-        <v>0</v>
-      </c>
-      <c r="C57" s="0">
+      <c r="B57">
+        <v>1E-22</v>
+      </c>
+      <c r="C57">
         <v>0.19514999999999999</v>
       </c>
-      <c r="D57" s="0">
-        <v>0.00173</v>
-      </c>
-      <c r="E57" s="0">
+      <c r="D57">
+        <v>1.73E-3</v>
+      </c>
+      <c r="E57">
         <v>0.22306000000000001</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42005</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>0.26880999999999999</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>0.27143</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>0.24182999999999999</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>0.28410999999999997</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>42370</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>0.20888999999999999</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>0.24102000000000001</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>0.24413000000000001</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>0.27986</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>42736</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>0.21578</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>0.23533000000000001</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>0.20646</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>0.2545</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="9.85546875" customWidth="true"/>
-    <col min="4" max="4" width="9.42578125" customWidth="true"/>
-    <col min="5" max="5" width="12.140625" customWidth="true"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>21551</v>
       </c>
-      <c r="B2" s="0">
-        <v>0.098489999999999994</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="B2">
+        <v>9.8489999999999994E-2</v>
+      </c>
+      <c r="C2">
         <v>0.29505999999999999</v>
       </c>
-      <c r="D2" s="0">
-        <v>0.00282</v>
-      </c>
-      <c r="E2" s="0">
+      <c r="D2">
+        <v>2.82E-3</v>
+      </c>
+      <c r="E2">
         <v>0.10173</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>21916</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>0.43047000000000002</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>0.36246</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>0.40917999999999999</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>0.43583</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>22282</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>0.25749</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>0.22511999999999999</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>0.30531000000000003</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>0.35936000000000001</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>22647</v>
       </c>
-      <c r="B5" s="0">
-        <v>0.00012</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.086870000000000003</v>
-      </c>
-      <c r="D5" s="0">
+      <c r="B5">
+        <v>1.2E-4</v>
+      </c>
+      <c r="C5">
+        <v>8.6870000000000003E-2</v>
+      </c>
+      <c r="D5">
         <v>0.10451000000000001</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>0.34531000000000001</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>23012</v>
       </c>
-      <c r="B6" s="0">
-        <v>0.05561</v>
-      </c>
-      <c r="C6" s="0">
+      <c r="B6">
+        <v>5.561E-2</v>
+      </c>
+      <c r="C6">
         <v>0.20748</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>0.30188999999999999</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>0.30286999999999997</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>23377</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>0.10383000000000001</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>0.23623</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>0.25441999999999998</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>0.25646000000000002</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>23743</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>0.12303</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>0.30726999999999999</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>0.17438000000000001</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>0.33806999999999998</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>24108</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>0.11255</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>0.19880999999999999</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>0.31844</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>0.31845000000000001</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>24473</v>
       </c>
-      <c r="B10" s="0">
-        <v>0.062059999999999997</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.070629999999999998</v>
-      </c>
-      <c r="D10" s="0">
+      <c r="B10">
+        <v>6.2059999999999997E-2</v>
+      </c>
+      <c r="C10">
+        <v>7.0629999999999998E-2</v>
+      </c>
+      <c r="D10">
         <v>0.25306000000000001</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>0.17854999999999999</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>24838</v>
       </c>
-      <c r="B11" s="0">
-        <v>0.076859999999999998</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0.00055000000000000003</v>
-      </c>
-      <c r="D11" s="0">
+      <c r="B11">
+        <v>7.6859999999999998E-2</v>
+      </c>
+      <c r="C11">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="D11">
         <v>0.24131</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>0.12237000000000001</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>25204</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>0.30196000000000001</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>0.18773000000000001</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>0.32562999999999998</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>0.37547999999999998</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>25569</v>
       </c>
-      <c r="B13" s="0">
-        <v>0.0070600000000000003</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0.08967</v>
-      </c>
-      <c r="D13" s="0">
+      <c r="B13">
+        <v>7.0600000000000003E-3</v>
+      </c>
+      <c r="C13">
+        <v>8.967E-2</v>
+      </c>
+      <c r="D13">
         <v>0.13799</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>0.13875999999999999</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>25934</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>0.22301000000000001</v>
       </c>
-      <c r="C14" s="0">
-        <v>0.042909999999999997</v>
-      </c>
-      <c r="D14" s="0">
+      <c r="C14">
+        <v>4.2909999999999997E-2</v>
+      </c>
+      <c r="D14">
         <v>0.26122000000000001</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>0.31445000000000001</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>26299</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>0.10637000000000001</v>
       </c>
-      <c r="C15" s="0">
-        <v>0.03347</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0.080619999999999997</v>
-      </c>
-      <c r="E15" s="0">
+      <c r="C15">
+        <v>3.347E-2</v>
+      </c>
+      <c r="D15">
+        <v>8.0619999999999997E-2</v>
+      </c>
+      <c r="E15">
         <v>0.22004000000000001</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>26665</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>0.19800000000000001</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>0.23197000000000001</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>0.27318999999999999</v>
       </c>
-      <c r="E16" s="0">
-        <v>0.090139999999999998</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="E16">
+        <v>9.0139999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>27030</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>0.14183999999999999</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>0.21304000000000001</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>0.28944999999999999</v>
       </c>
-      <c r="E17" s="0">
-        <v>0.062979999999999994</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17">
+        <v>6.2979999999999994E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>27395</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>0.13441</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>0.26852999999999999</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>0.20050999999999999</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>0.26651999999999998</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>27760</v>
       </c>
-      <c r="B19" s="0">
-        <v>0.027400000000000001</v>
-      </c>
-      <c r="C19" s="0">
-        <v>0.086900000000000005</v>
-      </c>
-      <c r="D19" s="0">
-        <v>0.0078399999999999997</v>
-      </c>
-      <c r="E19" s="0">
-        <v>0.084470000000000003</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="D19">
+        <v>7.8399999999999997E-3</v>
+      </c>
+      <c r="E19">
+        <v>8.4470000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>28126</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>0.18240000000000001</v>
       </c>
-      <c r="C20" s="0">
-        <v>0.068290000000000003</v>
-      </c>
-      <c r="D20" s="0">
+      <c r="C20">
+        <v>6.8290000000000003E-2</v>
+      </c>
+      <c r="D20">
         <v>0.17805000000000001</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>0.29744999999999999</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>28491</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>0.19833999999999999</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>0.16594999999999999</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>0.29519000000000001</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>0.40865000000000001</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>28856</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>0.14723</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>0.11768000000000001</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>0.22069</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>0.26822000000000001</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>29221</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>0.17205999999999999</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>0.17302000000000001</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>0.15040000000000001</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>0.32339000000000001</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>29587</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>0.13786000000000001</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>0.14563999999999999</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>0.31011</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>0.26199</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>29952</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>0.15529000000000001</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>0.25551000000000001</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>0.12016</v>
       </c>
-      <c r="E25" s="0">
-        <v>0.02128</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="E25">
+        <v>2.128E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>30317</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>0.23102</v>
       </c>
-      <c r="C26" s="0">
-        <v>0.05357</v>
-      </c>
-      <c r="D26" s="0">
-        <v>0.043720000000000002</v>
-      </c>
-      <c r="E26" s="0">
+      <c r="C26">
+        <v>5.357E-2</v>
+      </c>
+      <c r="D26">
+        <v>4.3720000000000002E-2</v>
+      </c>
+      <c r="E26">
         <v>0.11539000000000001</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>30682</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>0.20971999999999999</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>0.24614</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>0.12192</v>
       </c>
-      <c r="E27" s="0">
-        <v>0.014319999999999999</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="E27">
+        <v>1.4319999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>31048</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>0.15681999999999999</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>0.11817999999999999</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>0.15325</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>0.29543999999999998</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>31413</v>
       </c>
-      <c r="B29" s="0">
-        <v>0.00034000000000000002</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="B29">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="C29">
         <v>0.37669999999999998</v>
       </c>
-      <c r="D29" s="0">
-        <v>0.080399999999999999</v>
-      </c>
-      <c r="E29" s="0">
-        <v>0.086249999999999993</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="D29">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>8.6249999999999993E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>31778</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>0.30538999999999999</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>0.18278</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>0.15814</v>
       </c>
-      <c r="E30" s="0">
-        <v>0.022630000000000001</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="E30">
+        <v>2.2630000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>32143</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>0.126</v>
       </c>
-      <c r="C31" s="0">
-        <v>0.076109999999999997</v>
-      </c>
-      <c r="D31" s="0">
+      <c r="C31">
+        <v>7.6109999999999997E-2</v>
+      </c>
+      <c r="D31">
         <v>0.16742000000000001</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>0.10716000000000001</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>32509</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>0.16758999999999999</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>0.16075999999999999</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>0.1381</v>
       </c>
-      <c r="E32" s="0">
-        <v>0.081799999999999998</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="E32">
+        <v>8.1799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32874</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>0.35931999999999997</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>0.12397</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>0.11014</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>0.32396999999999998</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33239</v>
       </c>
-      <c r="B34" s="0">
-        <v>0.029420000000000002</v>
-      </c>
-      <c r="C34" s="0">
-        <v>0.027269999999999999</v>
-      </c>
-      <c r="D34" s="0">
-        <v>0.00022000000000000001</v>
-      </c>
-      <c r="E34" s="0">
+      <c r="B34">
+        <v>2.9420000000000002E-2</v>
+      </c>
+      <c r="C34">
+        <v>2.7269999999999999E-2</v>
+      </c>
+      <c r="D34">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="E34">
         <v>0.25516</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33604</v>
       </c>
-      <c r="B35" s="0">
-        <v>0.02317</v>
-      </c>
-      <c r="C35" s="0">
+      <c r="B35">
+        <v>2.317E-2</v>
+      </c>
+      <c r="C35">
         <v>0.27542</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>0.10965999999999999</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>0.27059</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>33970</v>
       </c>
-      <c r="B36" s="0">
-        <v>0.089010000000000006</v>
-      </c>
-      <c r="C36" s="0">
+      <c r="B36">
+        <v>8.9010000000000006E-2</v>
+      </c>
+      <c r="C36">
         <v>0.24962000000000001</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>0.32866000000000001</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>0.30797000000000002</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>34335</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>0.20313999999999999</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>0.28669</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>0.27500999999999998</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>0.26218000000000002</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>34700</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>0.25747999999999999</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>0.23388</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>0.25451000000000001</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>0.24578</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>35065</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>0.36918000000000001</v>
       </c>
-      <c r="C39" s="0">
-        <v>0.054760000000000003</v>
-      </c>
-      <c r="D39" s="0">
+      <c r="C39">
+        <v>5.4760000000000003E-2</v>
+      </c>
+      <c r="D39">
         <v>0.1719</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>0.29303000000000001</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>35431</v>
       </c>
-      <c r="B40" s="0">
-        <v>0.03993</v>
-      </c>
-      <c r="C40" s="0">
+      <c r="B40">
+        <v>3.993E-2</v>
+      </c>
+      <c r="C40">
         <v>0.37589</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>0.31334000000000001</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>0.33831</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>35796</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>0.13019</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41">
         <v>0.20105999999999999</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>0.17247000000000001</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>0.11054</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36161</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>0.13375000000000001</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>0.10449</v>
       </c>
-      <c r="D42" s="0">
-        <v>0.03023</v>
-      </c>
-      <c r="E42" s="0">
+      <c r="D42">
+        <v>3.023E-2</v>
+      </c>
+      <c r="E42">
         <v>0.15640999999999999</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>36526</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>0.19202</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>0.31790000000000002</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>0.29216999999999999</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>0.30532999999999999</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>36892</v>
       </c>
-      <c r="B44" s="0">
-        <v>0.073510000000000006</v>
-      </c>
-      <c r="C44" s="0">
+      <c r="B44">
+        <v>7.3510000000000006E-2</v>
+      </c>
+      <c r="C44">
         <v>0.28541</v>
       </c>
-      <c r="D44" s="0">
-        <v>0.0304</v>
-      </c>
-      <c r="E44" s="0">
-        <v>0.049959999999999997</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="D44">
+        <v>3.04E-2</v>
+      </c>
+      <c r="E44">
+        <v>4.9959999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>37257</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>0.27444000000000002</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>0.17296</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>0.30586000000000002</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>0.28548000000000001</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>37622</v>
       </c>
-      <c r="B46" s="0">
-        <v>0.090340000000000004</v>
-      </c>
-      <c r="C46" s="0">
-        <v>0.025090000000000001</v>
-      </c>
-      <c r="D46" s="0">
+      <c r="B46">
+        <v>9.0340000000000004E-2</v>
+      </c>
+      <c r="C46">
+        <v>2.5090000000000001E-2</v>
+      </c>
+      <c r="D46">
         <v>0.159</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>0.23809</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>37987</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>0.21765000000000001</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>0.15246999999999999</v>
       </c>
-      <c r="D47" s="0">
-        <v>0.043310000000000001</v>
-      </c>
-      <c r="E47" s="0">
+      <c r="D47">
+        <v>4.3310000000000001E-2</v>
+      </c>
+      <c r="E47">
         <v>0.1812</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>38353</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>0.24568000000000001</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>0.29916999999999999</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>0.29074</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>0.29759999999999998</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>38718</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>0.22020999999999999</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>0.23239000000000001</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>0.24112</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>0.22270999999999999</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>39083</v>
       </c>
-      <c r="B50" s="0">
-        <v>0.022040000000000001</v>
-      </c>
-      <c r="C50" s="0">
-        <v>0.0042700000000000004</v>
-      </c>
-      <c r="D50" s="0">
-        <v>0.084019999999999997</v>
-      </c>
-      <c r="E50" s="0">
-        <v>0.097159999999999996</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="B50">
+        <v>2.2040000000000001E-2</v>
+      </c>
+      <c r="C50">
+        <v>4.2700000000000004E-3</v>
+      </c>
+      <c r="D50">
+        <v>8.4019999999999997E-2</v>
+      </c>
+      <c r="E50">
+        <v>9.7159999999999996E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>39448</v>
       </c>
-      <c r="B51" s="0">
-        <v>0.062280000000000002</v>
-      </c>
-      <c r="C51" s="0">
-        <v>0.016449999999999999</v>
-      </c>
-      <c r="D51" s="0">
-        <v>0.038879999999999998</v>
-      </c>
-      <c r="E51" s="0">
-        <v>0.036819999999999999</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="B51">
+        <v>6.2280000000000002E-2</v>
+      </c>
+      <c r="C51">
+        <v>1.6449999999999999E-2</v>
+      </c>
+      <c r="D51">
+        <v>3.8879999999999998E-2</v>
+      </c>
+      <c r="E51">
+        <v>3.6819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>39814</v>
       </c>
-      <c r="B52" s="0">
-        <v>0.054429999999999999</v>
-      </c>
-      <c r="C52" s="0">
+      <c r="B52">
+        <v>5.4429999999999999E-2</v>
+      </c>
+      <c r="C52">
         <v>0.26458999999999999</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>0.23161000000000001</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>0.19073999999999999</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40179</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>0.22306999999999999</v>
       </c>
-      <c r="C53" s="0">
-        <v>0.0504</v>
-      </c>
-      <c r="D53" s="0">
-        <v>0.04829</v>
-      </c>
-      <c r="E53" s="0">
+      <c r="C53">
+        <v>5.04E-2</v>
+      </c>
+      <c r="D53">
+        <v>4.829E-2</v>
+      </c>
+      <c r="E53">
         <v>0.17138999999999999</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40544</v>
       </c>
-      <c r="B54" s="0">
-        <v>0.072590000000000002</v>
-      </c>
-      <c r="C54" s="0">
+      <c r="B54">
+        <v>7.2590000000000002E-2</v>
+      </c>
+      <c r="C54">
         <v>0.20877000000000001</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>0.21590999999999999</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>0.23673</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40909</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>0.26318000000000003</v>
       </c>
-      <c r="C55" s="0">
-        <v>0.099070000000000005</v>
-      </c>
-      <c r="D55" s="0">
-        <v>0.048809999999999999</v>
-      </c>
-      <c r="E55" s="0">
+      <c r="C55">
+        <v>9.9070000000000005E-2</v>
+      </c>
+      <c r="D55">
+        <v>4.8809999999999999E-2</v>
+      </c>
+      <c r="E55">
         <v>0.16675000000000001</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>41275</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>0.25446999999999997</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>0.19592999999999999</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>0.26967999999999998</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>0.14205000000000001</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>41640</v>
       </c>
-      <c r="B57" s="0">
-        <v>1.0000000000000001e-05</v>
-      </c>
-      <c r="C57" s="0">
+      <c r="B57">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C57">
         <v>0.30508999999999997</v>
       </c>
-      <c r="D57" s="0">
-        <v>0.00017000000000000001</v>
-      </c>
-      <c r="E57" s="0">
-        <v>0.00183</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="D57">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="E57">
+        <v>1.83E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>42005</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>0.13528000000000001</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>0.21582999999999999</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>0.22944000000000001</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>0.19109999999999999</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>42370</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>0.16344</v>
       </c>
-      <c r="C59" s="0">
-        <v>0.077939999999999995</v>
-      </c>
-      <c r="D59" s="0">
-        <v>0.094420000000000004</v>
-      </c>
-      <c r="E59" s="0">
-        <v>0.096210000000000004</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="C59">
+        <v>7.7939999999999995E-2</v>
+      </c>
+      <c r="D59">
+        <v>9.4420000000000004E-2</v>
+      </c>
+      <c r="E59">
+        <v>9.6210000000000004E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>42736</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>0.20282</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>0.13122</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>0.26279999999999998</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>0.29281000000000001</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>